--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuetingliu/Dropbox/Yixiao/automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51348E6-3E6A-7D40-9258-0CE99DF6DFD9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2FE3EB-95A7-F847-9DB8-AF8088901D99}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14380" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="44AMU" sheetId="1" r:id="rId1"/>
-    <sheet name="46AMU" sheetId="2" r:id="rId2"/>
+    <sheet name="Inert" sheetId="1" r:id="rId1"/>
+    <sheet name="Reactant" sheetId="2" r:id="rId2"/>
     <sheet name="18AMU" sheetId="3" r:id="rId3"/>
     <sheet name="32AMU" sheetId="4" r:id="rId4"/>
     <sheet name="30AMU" sheetId="5" r:id="rId5"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="14">
   <si>
     <t>M0</t>
   </si>
@@ -6800,7 +6800,7 @@
   <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14821,15 +14821,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M182"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14869,8 +14869,11 @@
       <c r="M1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>7.1824334359052999E-3</v>
       </c>
@@ -14910,8 +14913,11 @@
       <c r="M2">
         <v>0.78970781287934999</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <v>800.10302734375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4.6780042322641302E-3</v>
       </c>
@@ -14951,8 +14957,11 @@
       <c r="M3">
         <v>0.84309453902831399</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <v>799.94757080078102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3.28880627356625E-3</v>
       </c>
@@ -14992,8 +15001,11 @@
       <c r="M4">
         <v>0.60929366181704103</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <v>800.02258300781205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2.5545663134415699E-3</v>
       </c>
@@ -15033,8 +15045,11 @@
       <c r="M5">
         <v>0.60034376689941904</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <v>799.8818359375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1.7362218270686801E-3</v>
       </c>
@@ -15074,8 +15089,11 @@
       <c r="M6">
         <v>0.31692158007485099</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>799.90106201171898</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2.2194121012909102E-3</v>
       </c>
@@ -15115,8 +15133,11 @@
       <c r="M7">
         <v>0.68728499952079203</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>799.89758300781205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1.5250841639236801E-3</v>
       </c>
@@ -15156,8 +15177,11 @@
       <c r="M8">
         <v>0.38122228253337997</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <v>800.0439453125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1.89557705699463E-3</v>
       </c>
@@ -15197,8 +15221,11 @@
       <c r="M9">
         <v>0.46273291743640799</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <v>799.97961425781205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1.3935519779533401E-3</v>
       </c>
@@ -15238,8 +15265,11 @@
       <c r="M10">
         <v>0.36186469262182003</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <v>799.95202636718795</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1.42473974601268E-3</v>
       </c>
@@ -15279,8 +15309,11 @@
       <c r="M11">
         <v>0.52882511420640399</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <v>799.83184814453102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1.37539345816629E-3</v>
       </c>
@@ -15320,8 +15353,11 @@
       <c r="M12">
         <v>0.140751181691287</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <v>800.01409912109398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1.2540561357140801E-3</v>
       </c>
@@ -15361,8 +15397,11 @@
       <c r="M13">
         <v>0.19318419903261799</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <v>800.00183105468795</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1.5019380083542201E-3</v>
       </c>
@@ -15402,8 +15441,11 @@
       <c r="M14">
         <v>0.423070510837529</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>800.116455078125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1.5732269521023499E-3</v>
       </c>
@@ -15443,8 +15485,11 @@
       <c r="M15">
         <v>0.57642946756049196</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>799.97430419921898</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1.3871254114835099E-3</v>
       </c>
@@ -15484,8 +15529,11 @@
       <c r="M16">
         <v>0.252217797702596</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <v>799.91217041015602</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1.2610162201216299E-3</v>
       </c>
@@ -15525,8 +15573,11 @@
       <c r="M17">
         <v>0.34409416645299201</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>800.06744384765602</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1.4652271470972701E-3</v>
       </c>
@@ -15566,8 +15617,11 @@
       <c r="M18">
         <v>0.49323969138316398</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <v>800.05383300781205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1.2261459230193199E-3</v>
       </c>
@@ -15607,8 +15661,11 @@
       <c r="M19">
         <v>0.43517598880908498</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <v>799.9130859375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1.1793891070173001E-3</v>
       </c>
@@ -15648,8 +15705,11 @@
       <c r="M20">
         <v>0.38744097528126198</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <v>800.06164550781205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1.078576844032E-3</v>
       </c>
@@ -15689,8 +15749,11 @@
       <c r="M21">
         <v>0.13658509749606701</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <v>799.97747802734398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1.23539281303135E-3</v>
       </c>
@@ -15730,8 +15793,11 @@
       <c r="M22">
         <v>0.216187728707677</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <v>800.03631591796898</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1.95037209140082E-3</v>
       </c>
@@ -15771,8 +15837,11 @@
       <c r="M23">
         <v>1.4294534380700401</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <v>800.00500488281205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1.1440492408607401E-3</v>
       </c>
@@ -15812,8 +15881,11 @@
       <c r="M24">
         <v>0.28025725977406502</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <v>799.98114013671898</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1.47052515315528E-3</v>
       </c>
@@ -15853,8 +15925,11 @@
       <c r="M25">
         <v>0.36443208920550502</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <v>799.96032714843795</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4.0104224978407602E-4</v>
       </c>
@@ -15894,8 +15969,11 @@
       <c r="M26">
         <v>-0.23762750899109999</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <v>800.06103515625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1.2175740789286901E-3</v>
       </c>
@@ -15935,8 +16013,11 @@
       <c r="M27">
         <v>0.19796377093376299</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <v>799.91735839843795</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1.04718446109564E-3</v>
       </c>
@@ -15976,8 +16057,11 @@
       <c r="M28">
         <v>3.9794881303315599E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28">
+        <v>800.046630859375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1.4203753828770701E-3</v>
       </c>
@@ -16017,8 +16101,11 @@
       <c r="M29">
         <v>0.57444860485310401</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29">
+        <v>799.94201660156205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1.2815668160423E-3</v>
       </c>
@@ -16058,8 +16145,11 @@
       <c r="M30">
         <v>0.71197147842973496</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30">
+        <v>799.78839111328102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1.51396012905627E-3</v>
       </c>
@@ -16099,8 +16189,11 @@
       <c r="M31">
         <v>0.38164804763017501</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31">
+        <v>799.9052734375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2.0125420429037599E-3</v>
       </c>
@@ -16140,8 +16233,11 @@
       <c r="M32">
         <v>1.09301313239014</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32">
+        <v>800.10534667968795</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1.0479438742885901E-3</v>
       </c>
@@ -16181,8 +16277,11 @@
       <c r="M33">
         <v>0.33890264849422302</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33">
+        <v>800.09307861328102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1.4069659431389101E-3</v>
       </c>
@@ -16222,8 +16321,11 @@
       <c r="M34">
         <v>0.31462193605114203</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34">
+        <v>800.06549072265602</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1.4523541345131999E-3</v>
       </c>
@@ -16263,8 +16365,11 @@
       <c r="M35">
         <v>0.68596021810177099</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35">
+        <v>800.04797363281205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1.64706835599895E-3</v>
       </c>
@@ -16304,8 +16409,11 @@
       <c r="M36">
         <v>0.91178130234883303</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36">
+        <v>799.89764404296898</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>9.2308343706963602E-4</v>
       </c>
@@ -16345,8 +16453,11 @@
       <c r="M37">
         <v>6.6074003434738293E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <v>799.97033691406205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1.1681448784188399E-3</v>
       </c>
@@ -16386,8 +16497,11 @@
       <c r="M38">
         <v>0.31700493842739003</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <v>800.21710205078102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1.08509709804031E-3</v>
       </c>
@@ -16427,8 +16541,11 @@
       <c r="M39">
         <v>0.59761080895025998</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39">
+        <v>800.02972412109398</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1.1190335905971001E-3</v>
       </c>
@@ -16468,8 +16585,11 @@
       <c r="M40">
         <v>0.20505583104647801</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <v>799.94464111328102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>9.0835671498336996E-4</v>
       </c>
@@ -16509,8 +16629,11 @@
       <c r="M41">
         <v>9.8268957248350899E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41">
+        <v>799.97833251953102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1.3262837865758001E-3</v>
       </c>
@@ -16550,8 +16673,11 @@
       <c r="M42">
         <v>1.0246558227250699</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42">
+        <v>800.1142578125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>8.1118571326956599E-4</v>
       </c>
@@ -16591,8 +16717,11 @@
       <c r="M43">
         <v>2.44993219473785E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43">
+        <v>799.99951171875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1.10404164496168E-3</v>
       </c>
@@ -16632,8 +16761,11 @@
       <c r="M44">
         <v>7.9750959202974994E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44">
+        <v>800.02557373046898</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>7.6272781387035603E-4</v>
       </c>
@@ -16673,8 +16805,11 @@
       <c r="M45">
         <v>2.44500519907156E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45">
+        <v>799.94055175781205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>8.9001739279308397E-4</v>
       </c>
@@ -16714,8 +16849,11 @@
       <c r="M46">
         <v>0.16881279934611801</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46">
+        <v>800.09649658203102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1.8443211380446199E-3</v>
       </c>
@@ -16755,8 +16893,11 @@
       <c r="M47">
         <v>1.3016689481144099</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47">
+        <v>799.78912353515602</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1.2452167514761601E-3</v>
       </c>
@@ -16796,8 +16937,11 @@
       <c r="M48">
         <v>0.62601910105393199</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48">
+        <v>799.999267578125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1.1149246997487099E-3</v>
       </c>
@@ -16837,8 +16981,11 @@
       <c r="M49">
         <v>0.35779327939966699</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49">
+        <v>799.96014404296898</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1.0829490728263801E-3</v>
       </c>
@@ -16878,8 +17025,11 @@
       <c r="M50">
         <v>0.150646915090662</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N50">
+        <v>800.01177978515602</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>9.6219488661142803E-4</v>
       </c>
@@ -16919,8 +17069,11 @@
       <c r="M51">
         <v>0.23642638356707399</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N51">
+        <v>799.9501953125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1.27004087833586E-3</v>
       </c>
@@ -16960,8 +17113,11 @@
       <c r="M52">
         <v>0.31376325494756202</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N52">
+        <v>799.98431396484398</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>8.0373957424890801E-4</v>
       </c>
@@ -17001,8 +17157,11 @@
       <c r="M53">
         <v>0.13312606596753801</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N53">
+        <v>800.12567138671898</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1.2701903258526999E-3</v>
       </c>
@@ -17042,8 +17201,11 @@
       <c r="M54">
         <v>0.32692097491074101</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N54">
+        <v>799.99670410156205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>9.9891145855215795E-4</v>
       </c>
@@ -17083,8 +17245,11 @@
       <c r="M55">
         <v>5.6564640047016702E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N55">
+        <v>800.05383300781205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1.29939422391936E-3</v>
       </c>
@@ -17124,8 +17289,11 @@
       <c r="M56">
         <v>0.49796814423286601</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N56">
+        <v>800.02233886718795</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1.36541597775209E-3</v>
       </c>
@@ -17165,8 +17333,11 @@
       <c r="M57">
         <v>0.53214948361561998</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N57">
+        <v>799.96868896484398</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>6.4504252756481103E-4</v>
       </c>
@@ -17206,8 +17377,11 @@
       <c r="M58">
         <v>0.25344986811070302</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N58">
+        <v>800.04736328125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1.1666082734892E-3</v>
       </c>
@@ -17247,8 +17421,11 @@
       <c r="M59">
         <v>0.90352132090431903</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N59">
+        <v>799.97393798828102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>8.2889519013929196E-4</v>
       </c>
@@ -17288,8 +17465,11 @@
       <c r="M60">
         <v>-3.1691665283219699E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N60">
+        <v>799.97607421875</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>8.5302886300632995E-4</v>
       </c>
@@ -17329,8 +17509,11 @@
       <c r="M61">
         <v>0.16881958331049399</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N61">
+        <v>800.04644775390602</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1.1830373719576501E-3</v>
       </c>
@@ -17370,8 +17553,11 @@
       <c r="M62">
         <v>0.46286064852369302</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N62">
+        <v>800.055419921875</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>9.1638027955747196E-4</v>
       </c>
@@ -17411,8 +17597,11 @@
       <c r="M63">
         <v>0.37817184539834298</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N63">
+        <v>800.0185546875</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>7.8846866709866999E-4</v>
       </c>
@@ -17452,8 +17641,11 @@
       <c r="M64">
         <v>8.8388178300120704E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N64">
+        <v>799.9814453125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1.18925048815299E-3</v>
       </c>
@@ -17493,8 +17685,11 @@
       <c r="M65">
         <v>0.21298039773885699</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N65">
+        <v>800.01702880859398</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1.23643959214161E-3</v>
       </c>
@@ -17534,8 +17729,11 @@
       <c r="M66">
         <v>0.40382942544523398</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N66">
+        <v>800.05627441406205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1.3135170681339301E-3</v>
       </c>
@@ -17575,8 +17773,11 @@
       <c r="M67">
         <v>0.69766276312192699</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N67">
+        <v>799.96240234375</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>9.1259301872909798E-4</v>
       </c>
@@ -17616,8 +17817,11 @@
       <c r="M68">
         <v>0.25001851124466801</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N68">
+        <v>799.95660400390602</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>5.4798541628024505E-4</v>
       </c>
@@ -17657,8 +17861,11 @@
       <c r="M69">
         <v>-0.249639235751725</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N69">
+        <v>799.99328613281205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1.51875209310793E-3</v>
       </c>
@@ -17698,8 +17905,11 @@
       <c r="M70">
         <v>0.29156152531503998</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N70">
+        <v>800.02880859375</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1.2610454200329901E-3</v>
       </c>
@@ -17739,8 +17949,11 @@
       <c r="M71">
         <v>0.40309657202895199</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N71">
+        <v>799.95928955078102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1.6046257999637399E-3</v>
       </c>
@@ -17780,8 +17993,11 @@
       <c r="M72">
         <v>0.55600411013380102</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N72">
+        <v>800.05755615234398</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>9.6651932883506204E-4</v>
       </c>
@@ -17821,8 +18037,11 @@
       <c r="M73">
         <v>0.185306807122395</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N73">
+        <v>799.96856689453102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1.2710498915091599E-3</v>
       </c>
@@ -17862,8 +18081,11 @@
       <c r="M74">
         <v>0.53980807271067899</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N74">
+        <v>800.25579833984398</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1.09034688653253E-3</v>
       </c>
@@ -17903,8 +18125,11 @@
       <c r="M75">
         <v>0.92384647944537202</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N75">
+        <v>800.16345214843795</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1.2573739891112701E-3</v>
       </c>
@@ -17944,8 +18169,11 @@
       <c r="M76">
         <v>0.447058434758348</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N76">
+        <v>800.08776855468795</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1.19885531951388E-3</v>
       </c>
@@ -17985,8 +18213,11 @@
       <c r="M77">
         <v>0.19547154678026599</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N77">
+        <v>800.01232910156205</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1.2580275930313899E-3</v>
       </c>
@@ -18026,8 +18257,11 @@
       <c r="M78">
         <v>0.38322374377415902</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N78">
+        <v>800.02209472656205</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>8.5900757179504703E-4</v>
       </c>
@@ -18067,8 +18301,11 @@
       <c r="M79">
         <v>0.32930499023132598</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N79">
+        <v>799.95025634765602</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1.3557930446011701E-3</v>
       </c>
@@ -18108,8 +18345,11 @@
       <c r="M80">
         <v>0.55658840949743604</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N80">
+        <v>800.03765869140602</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>9.1090378769445102E-4</v>
       </c>
@@ -18149,8 +18389,11 @@
       <c r="M81">
         <v>0.102488261944076</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N81">
+        <v>800.01379394531205</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>5.6496279426524897E-4</v>
       </c>
@@ -18190,8 +18433,11 @@
       <c r="M82">
         <v>-0.152147373869018</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N82">
+        <v>799.90594482421898</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>9.01120847649111E-4</v>
       </c>
@@ -18231,8 +18477,11 @@
       <c r="M83">
         <v>0.47436811247177602</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N83">
+        <v>799.95568847656205</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1.02301415365346E-3</v>
       </c>
@@ -18272,8 +18521,11 @@
       <c r="M84">
         <v>6.3064952207670701E-3</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N84">
+        <v>799.84356689453102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1.3515246856021599E-3</v>
       </c>
@@ -18313,8 +18565,11 @@
       <c r="M85">
         <v>0.400934733255839</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N85">
+        <v>800.00152587890602</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>8.2096455886238604E-4</v>
       </c>
@@ -18354,8 +18609,11 @@
       <c r="M86">
         <v>6.00611564546416E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N86">
+        <v>800.07861328125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>6.4743611218094101E-4</v>
       </c>
@@ -18395,8 +18653,11 @@
       <c r="M87">
         <v>-7.6240750461157594E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N87">
+        <v>800.06134033203102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>9.2754762942251999E-4</v>
       </c>
@@ -18436,8 +18697,11 @@
       <c r="M88">
         <v>0.565655876787859</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N88">
+        <v>799.88494873046898</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>9.4086726057712202E-4</v>
       </c>
@@ -18477,8 +18741,11 @@
       <c r="M89">
         <v>-1.5246619318485999E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N89">
+        <v>799.88439941406205</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>8.6240995408695697E-4</v>
       </c>
@@ -18518,8 +18785,11 @@
       <c r="M90">
         <v>0.26156438800106002</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N90">
+        <v>799.99932861328102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>9.2763495978473995E-4</v>
       </c>
@@ -18559,8 +18829,11 @@
       <c r="M91">
         <v>0.25340233707781101</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N91">
+        <v>799.96716308593795</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1.02007622235021E-3</v>
       </c>
@@ -18600,8 +18873,11 @@
       <c r="M92">
         <v>0.53874386254406603</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N92">
+        <v>799.944580078125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>9.3633524038585895E-4</v>
       </c>
@@ -18641,8 +18917,11 @@
       <c r="M93">
         <v>0.417288926048624</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N93">
+        <v>800.01696777343795</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1.29944912190768E-3</v>
       </c>
@@ -18682,8 +18961,11 @@
       <c r="M94">
         <v>0.30732957698387697</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N94">
+        <v>799.999755859375</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1.44480913601399E-3</v>
       </c>
@@ -18723,8 +19005,11 @@
       <c r="M95">
         <v>0.565016051405694</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N95">
+        <v>800.00518798828102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1.11681666005734E-3</v>
       </c>
@@ -18764,8 +19049,11 @@
       <c r="M96">
         <v>0.69060757136672601</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N96">
+        <v>799.99957275390602</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>8.3520355622991398E-4</v>
       </c>
@@ -18805,8 +19093,11 @@
       <c r="M97">
         <v>2.2198220580049201E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N97">
+        <v>799.99420166015602</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>8.9183290536320201E-4</v>
       </c>
@@ -18846,8 +19137,11 @@
       <c r="M98">
         <v>2.9486023230877501E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N98">
+        <v>799.97912597656205</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>8.5524805626991404E-4</v>
       </c>
@@ -18887,8 +19181,11 @@
       <c r="M99">
         <v>0.100838466834979</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N99">
+        <v>800.048828125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1.66411022161111E-3</v>
       </c>
@@ -18928,8 +19225,11 @@
       <c r="M100">
         <v>1.34311825584071</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N100">
+        <v>799.92791748046898</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1.4172227621886001E-3</v>
       </c>
@@ -18969,8 +19269,11 @@
       <c r="M101">
         <v>0.84510462511467199</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N101">
+        <v>799.85412597656205</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1.3484283097613501E-3</v>
       </c>
@@ -19010,8 +19313,11 @@
       <c r="M102">
         <v>0.61915924759305496</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N102">
+        <v>800.08801269531205</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1.2045614778383501E-3</v>
       </c>
@@ -19051,8 +19357,11 @@
       <c r="M103">
         <v>0.376825018492497</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N103">
+        <v>800.06414794921898</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1.24161729671977E-3</v>
       </c>
@@ -19092,8 +19401,11 @@
       <c r="M104">
         <v>0.68791524539928595</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N104">
+        <v>799.95617675781205</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>9.2412412837552399E-4</v>
       </c>
@@ -19133,8 +19445,11 @@
       <c r="M105">
         <v>0.341451240764647</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N105">
+        <v>800.03411865234398</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1.0219084359766599E-3</v>
       </c>
@@ -19174,8 +19489,11 @@
       <c r="M106">
         <v>0.19615767894160499</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N106">
+        <v>800.04479980468795</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1.50615545606865E-3</v>
       </c>
@@ -19215,8 +19533,11 @@
       <c r="M107">
         <v>0.362967347188412</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N107">
+        <v>799.99810791015602</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>9.4942628256646303E-4</v>
       </c>
@@ -19256,8 +19577,11 @@
       <c r="M108">
         <v>0.613705345423321</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N108">
+        <v>800.00109863281205</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1.0444685460926199E-3</v>
       </c>
@@ -19297,8 +19621,11 @@
       <c r="M109">
         <v>0.61615561336080604</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N109">
+        <v>799.9736328125</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>9.7407639519428804E-4</v>
       </c>
@@ -19338,8 +19665,11 @@
       <c r="M110">
         <v>0.36945824064246102</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N110">
+        <v>799.93756103515602</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>8.6570033155282996E-4</v>
       </c>
@@ -19379,8 +19709,11 @@
       <c r="M111">
         <v>0.11898653176938501</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N111">
+        <v>799.93988037109398</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1.2476863528357899E-3</v>
       </c>
@@ -19420,8 +19753,11 @@
       <c r="M112">
         <v>0.594235605567209</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N112">
+        <v>799.96966552734398</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>8.2657654477907296E-4</v>
       </c>
@@ -19461,8 +19797,11 @@
       <c r="M113">
         <v>-5.3071096029495297E-3</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N113">
+        <v>800.13366699218795</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1.1104574904307999E-3</v>
       </c>
@@ -19502,8 +19841,11 @@
       <c r="M114">
         <v>0.44928430168501698</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N114">
+        <v>799.760498046875</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>9.7154327594637399E-4</v>
       </c>
@@ -19543,8 +19885,11 @@
       <c r="M115">
         <v>0.15543175479642099</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N115">
+        <v>799.99951171875</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>7.4266785188471796E-4</v>
       </c>
@@ -19584,8 +19929,11 @@
       <c r="M116">
         <v>-0.16565407811694199</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N116">
+        <v>800.01281738281205</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1.1457307678596699E-3</v>
       </c>
@@ -19625,8 +19973,11 @@
       <c r="M117">
         <v>0.75265287881348397</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N117">
+        <v>800.06158447265602</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>9.5416577297666595E-4</v>
       </c>
@@ -19666,8 +20017,11 @@
       <c r="M118">
         <v>0.117785546742738</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N118">
+        <v>799.99670410156205</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1.3500436790276401E-3</v>
       </c>
@@ -19707,8 +20061,11 @@
       <c r="M119">
         <v>0.41594347377629098</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N119">
+        <v>799.93713378906205</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>9.5618460743884305E-4</v>
       </c>
@@ -19748,8 +20105,11 @@
       <c r="M120">
         <v>0.48117319627967498</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N120">
+        <v>799.94299316406205</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1.06822121937824E-3</v>
       </c>
@@ -19789,8 +20149,11 @@
       <c r="M121">
         <v>0.45856630340423998</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N121">
+        <v>800.02966308593795</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1.3043112303959101E-3</v>
       </c>
@@ -19830,8 +20193,11 @@
       <c r="M122">
         <v>0.44682992209426198</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N122">
+        <v>800.125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1.68680733426322E-3</v>
       </c>
@@ -19871,8 +20237,11 @@
       <c r="M123">
         <v>1.3049009496537001</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N123">
+        <v>800.01885986328102</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>6.4485693034221502E-4</v>
       </c>
@@ -19912,8 +20281,11 @@
       <c r="M124">
         <v>0.326413818996237</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N124">
+        <v>799.99761962890602</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>8.7637316852780603E-4</v>
       </c>
@@ -19953,8 +20325,11 @@
       <c r="M125">
         <v>0.18348935824377</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N125">
+        <v>799.95129394531205</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1.2366768010156799E-3</v>
       </c>
@@ -19994,8 +20369,11 @@
       <c r="M126">
         <v>0.55137232113076495</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N126">
+        <v>800.10559082031205</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2.29714732953028E-4</v>
       </c>
@@ -20035,8 +20413,11 @@
       <c r="M127">
         <v>-0.33593611588178202</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N127">
+        <v>800.19177246093795</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1.1283128052342599E-3</v>
       </c>
@@ -20076,8 +20457,11 @@
       <c r="M128">
         <v>0.492608154561264</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N128">
+        <v>799.974853515625</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1.2285385378966701E-3</v>
       </c>
@@ -20117,8 +20501,11 @@
       <c r="M129">
         <v>0.239224490232919</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N129">
+        <v>799.80328369140602</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1.4826416078883499E-3</v>
       </c>
@@ -20158,8 +20545,11 @@
       <c r="M130">
         <v>1.74084905224384</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N130">
+        <v>799.93328857421898</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1.39016020891336E-3</v>
       </c>
@@ -20199,8 +20589,11 @@
       <c r="M131">
         <v>0.75278879543623201</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N131">
+        <v>799.96478271484398</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1.74572817607168E-3</v>
       </c>
@@ -20240,8 +20633,11 @@
       <c r="M132">
         <v>0.790027610037489</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N132">
+        <v>800.01812744140602</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>1.36628206220797E-3</v>
       </c>
@@ -20281,8 +20677,11 @@
       <c r="M133">
         <v>0.85237526714673395</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N133">
+        <v>799.92193603515602</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1.01994751646788E-3</v>
       </c>
@@ -20322,8 +20721,11 @@
       <c r="M134">
         <v>0.50877571700273005</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N134">
+        <v>799.93963623046898</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1.4883484665798501E-3</v>
       </c>
@@ -20363,8 +20765,11 @@
       <c r="M135">
         <v>0.63097233708803802</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N135">
+        <v>800.09240722656205</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>1.4518204549523301E-3</v>
       </c>
@@ -20404,8 +20809,11 @@
       <c r="M136">
         <v>1.4438841671351099</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N136">
+        <v>800.10455322265602</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>1.1827692930666601E-3</v>
       </c>
@@ -20445,8 +20853,11 @@
       <c r="M137">
         <v>0.55978318189285303</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N137">
+        <v>800.04052734375</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>9.8342914835353699E-4</v>
       </c>
@@ -20486,8 +20897,11 @@
       <c r="M138">
         <v>0.33936936091978698</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N138">
+        <v>799.89959716796898</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1.27164197089269E-3</v>
       </c>
@@ -20527,8 +20941,11 @@
       <c r="M139">
         <v>0.54931576738620203</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N139">
+        <v>799.857421875</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1.40370605856941E-3</v>
       </c>
@@ -20568,8 +20985,11 @@
       <c r="M140">
         <v>0.80383094536673105</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N140">
+        <v>799.96917724609398</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1.1803750080836199E-3</v>
       </c>
@@ -20609,8 +21029,11 @@
       <c r="M141">
         <v>0.159145359076798</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N141">
+        <v>800.03918457031205</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1.3135626458553699E-3</v>
       </c>
@@ -20650,8 +21073,11 @@
       <c r="M142">
         <v>0.73968230776125099</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N142">
+        <v>800.00164794921898</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>4.3917340119459703E-4</v>
       </c>
@@ -20691,8 +21117,11 @@
       <c r="M143">
         <v>-0.18029101334377201</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N143">
+        <v>799.96087646484398</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>8.4278411181671199E-4</v>
       </c>
@@ -20732,8 +21161,11 @@
       <c r="M144">
         <v>-0.120810133621803</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N144">
+        <v>800.01263427734398</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>1.01969759324123E-3</v>
       </c>
@@ -20773,8 +21205,11 @@
       <c r="M145">
         <v>0.64507405168626897</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N145">
+        <v>799.92999267578102</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>5.9702634416795104E-4</v>
       </c>
@@ -20814,8 +21249,11 @@
       <c r="M146">
         <v>-0.231936952278567</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N146">
+        <v>799.9990234375</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1.2146380332286001E-3</v>
       </c>
@@ -20855,8 +21293,11 @@
       <c r="M147">
         <v>0.48990748056836497</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N147">
+        <v>800.00537109375</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1.37451713757912E-3</v>
       </c>
@@ -20896,8 +21337,11 @@
       <c r="M148">
         <v>1.27674890500391</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N148">
+        <v>800.18273925781205</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1.37595951622654E-3</v>
       </c>
@@ -20937,8 +21381,11 @@
       <c r="M149">
         <v>0.51634245948260804</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N149">
+        <v>799.90802001953102</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>6.07640511948347E-4</v>
       </c>
@@ -20978,8 +21425,11 @@
       <c r="M150">
         <v>5.1697716474802202E-2</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N150">
+        <v>799.943115234375</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1.3234130904928099E-3</v>
       </c>
@@ -21019,8 +21469,11 @@
       <c r="M151">
         <v>0.86618032408666701</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N151">
+        <v>799.99084472656205</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1.1745092199853099E-3</v>
       </c>
@@ -21060,8 +21513,11 @@
       <c r="M152">
         <v>0.14042227582560499</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N152">
+        <v>799.97033691406205</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>7.6365989443584698E-4</v>
       </c>
@@ -21101,8 +21557,11 @@
       <c r="M153">
         <v>1.5283652967846799E-2</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N153">
+        <v>800.09283447265602</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1.16702935560579E-3</v>
       </c>
@@ -21142,8 +21601,11 @@
       <c r="M154">
         <v>0.13704942421080599</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N154">
+        <v>800.143310546875</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>8.0105560675042405E-4</v>
       </c>
@@ -21183,8 +21645,11 @@
       <c r="M155">
         <v>2.98301085547816E-2</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N155">
+        <v>800.102294921875</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>1.1203171475864899E-3</v>
       </c>
@@ -21224,8 +21689,11 @@
       <c r="M156">
         <v>0.32408124834800001</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N156">
+        <v>800.02716064453102</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>1.20345737639286E-3</v>
       </c>
@@ -21265,8 +21733,11 @@
       <c r="M157">
         <v>0.73232463105016798</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N157">
+        <v>799.93420410156205</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>1.3099768213159001E-3</v>
       </c>
@@ -21306,8 +21777,11 @@
       <c r="M158">
         <v>0.55834690959304001</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N158">
+        <v>799.911376953125</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1.4381870055621001E-3</v>
       </c>
@@ -21347,8 +21821,11 @@
       <c r="M159">
         <v>0.34666341530231798</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N159">
+        <v>800.08990478515602</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>7.9559533107428102E-4</v>
       </c>
@@ -21388,8 +21865,11 @@
       <c r="M160">
         <v>0.31570658896815801</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N160">
+        <v>799.93664550781205</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1.0963311443818501E-3</v>
       </c>
@@ -21429,8 +21909,11 @@
       <c r="M161">
         <v>0.32125429062835797</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N161">
+        <v>799.929931640625</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>1.21399789790235E-3</v>
       </c>
@@ -21470,8 +21953,11 @@
       <c r="M162">
         <v>0.30409585324100402</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N162">
+        <v>799.88348388671898</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>9.6374005756680997E-4</v>
       </c>
@@ -21511,8 +21997,11 @@
       <c r="M163">
         <v>1.12663345479302E-3</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N163">
+        <v>800.04229736328102</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>1.2109105190822899E-3</v>
       </c>
@@ -21552,8 +22041,11 @@
       <c r="M164">
         <v>0.37392262929529602</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N164">
+        <v>800.02722167968795</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>1.3208749070536801E-3</v>
       </c>
@@ -21593,8 +22085,11 @@
       <c r="M165">
         <v>0.43786479818674301</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N165">
+        <v>800.03131103515602</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>1.07225797243817E-3</v>
       </c>
@@ -21634,8 +22129,11 @@
       <c r="M166">
         <v>0.22457641436308801</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N166">
+        <v>799.956298828125</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>1.2394983097940399E-3</v>
       </c>
@@ -21675,8 +22173,11 @@
       <c r="M167">
         <v>0.97309813308531901</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N167">
+        <v>799.981201171875</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>9.943844486777491E-4</v>
       </c>
@@ -21716,8 +22217,11 @@
       <c r="M168">
         <v>0.18107997708637699</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N168">
+        <v>799.8818359375</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1.24590639735322E-3</v>
       </c>
@@ -21757,8 +22261,11 @@
       <c r="M169">
         <v>0.434506458101312</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N169">
+        <v>799.91448974609398</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>1.1320665562012701E-3</v>
       </c>
@@ -21798,8 +22305,11 @@
       <c r="M170">
         <v>0.51389118387620902</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N170">
+        <v>799.90637207031205</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>1.75142921633062E-3</v>
       </c>
@@ -21839,8 +22349,11 @@
       <c r="M171">
         <v>0.81358422319424295</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N171">
+        <v>800.04608154296898</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>1.0570621661669601E-3</v>
       </c>
@@ -21880,8 +22393,11 @@
       <c r="M172">
         <v>7.7216432476809899E-2</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N172">
+        <v>799.92340087890602</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>1.1338392386430801E-3</v>
       </c>
@@ -21921,8 +22437,11 @@
       <c r="M173">
         <v>0.89080123558683699</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N173">
+        <v>800.07824707031205</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>8.74543217625131E-4</v>
       </c>
@@ -21962,8 +22481,11 @@
       <c r="M174">
         <v>3.4524468943277903E-2</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N174">
+        <v>800.090576171875</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>9.1740480855079904E-4</v>
       </c>
@@ -22003,8 +22525,11 @@
       <c r="M175">
         <v>0.144045784788396</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N175">
+        <v>800.08282470703102</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>1.4359077962445199E-3</v>
       </c>
@@ -22044,8 +22569,11 @@
       <c r="M176">
         <v>0.63411601017017405</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N176">
+        <v>800.03820800781205</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>1.4295944737113999E-3</v>
       </c>
@@ -22085,8 +22613,11 @@
       <c r="M177">
         <v>0.49024831792951401</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N177">
+        <v>799.94873046875</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>1.2347102785718099E-3</v>
       </c>
@@ -22126,8 +22657,11 @@
       <c r="M178">
         <v>0.31158171427744502</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N178">
+        <v>800.02691650390602</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>1.01689278551919E-3</v>
       </c>
@@ -22167,8 +22701,11 @@
       <c r="M179">
         <v>0.53319195124123198</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N179">
+        <v>799.963134765625</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>1.1801779894934699E-3</v>
       </c>
@@ -22208,8 +22745,11 @@
       <c r="M180">
         <v>0.75281278576579802</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N180">
+        <v>799.96575927734398</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>1.5794281620605899E-3</v>
       </c>
@@ -22249,8 +22789,11 @@
       <c r="M181">
         <v>0.55676501322844996</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N181">
+        <v>800.03527832031205</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>1.17201074196066E-3</v>
       </c>
@@ -22289,6 +22832,9 @@
       </c>
       <c r="M182">
         <v>0.34952295798334498</v>
+      </c>
+      <c r="N182">
+        <v>800.06243896484398</v>
       </c>
     </row>
   </sheetData>
@@ -59681,7 +60227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
